--- a/input_Thi_P2.xlsx
+++ b/input_Thi_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thi_P2_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E81A068-0204-43AB-983F-E0FD38760C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031BE16-EC32-4265-B70F-4C6439A00147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7D86F441-0079-4FE9-BBDF-231279E5F1B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="1912">
   <si>
     <t>- Mô tả được rõ ràng là các yếu tố ảnh hưởng đến việc đáp ứng các nhu cầu hiện tại và tương lai của khách hàng
 - Đưa ra các giải pháo có thể đáp ứng nhanh chóng, hiệu quả các yêu cầu mới của khách hàng
@@ -6417,6 +6417,15 @@
   </si>
   <si>
     <t>Hiển thị dữ liệu dưới dạng bảng</t>
+  </si>
+  <si>
+    <t>Quản lý, nghiệp vụ và kỹ thuật đối với hệ thống thông tin</t>
+  </si>
+  <si>
+    <t>- Bán mang về 
+- Thanh toán khi khách hàng là hội viên 
+- Thanh toán theo nhiều hình thức khác nhau 
+- các lựa chọn khi in hóa đơn như in phiếu tạm tính, hóa đơn, hóa đơn VAT - kết thúc ca làm việc</t>
   </si>
 </sst>
 </file>
@@ -7222,8 +7231,8 @@
   <sheetPr codeName="Trang_tính1"/>
   <dimension ref="A1:B1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1207" workbookViewId="0">
-      <selection activeCell="A1210" sqref="A1210"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10001,13 +10010,17 @@
       <c r="A347" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B347" s="18"/>
-    </row>
-    <row r="348" spans="1:2" ht="16" thickBot="1">
+      <c r="B347" s="16" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="78" thickBot="1">
       <c r="A348" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B348" s="18"/>
+      <c r="B348" s="16" t="s">
+        <v>1911</v>
+      </c>
     </row>
     <row r="349" spans="1:2" ht="47" thickBot="1">
       <c r="A349" s="7" t="s">
